--- a/medicine/Pharmacie/Solution_de_Burow/Solution_de_Burow.xlsx
+++ b/medicine/Pharmacie/Solution_de_Burow/Solution_de_Burow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La solution de Burow est une solution aqueuse de triacétate d'aluminium. Il est disponible aux États-Unis sous forme de médicament en vente libre pour administration topique, sous les marques Domeboro (Moberg Pharma), Domeboro Otic (gouttes auriculaires), Star-Otic et Borofair[1]. La préparation a des propriétés astringentes et antibactériennes et peut être utilisée pour traiter un certain nombre d'affections cutanées, notamment les piqûres et piqûres d'insectes, les éruptions cutanées causées par le sumac grimpant et sumac à vernis, les œdèmes, les allergies et les contusions. Cependant, son utilisation principale est le traitement de l'otite (infection de l’oreille), y compris l’otomycose (infection fongique de l’oreille)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La solution de Burow est une solution aqueuse de triacétate d'aluminium. Il est disponible aux États-Unis sous forme de médicament en vente libre pour administration topique, sous les marques Domeboro (Moberg Pharma), Domeboro Otic (gouttes auriculaires), Star-Otic et Borofair. La préparation a des propriétés astringentes et antibactériennes et peut être utilisée pour traiter un certain nombre d'affections cutanées, notamment les piqûres et piqûres d'insectes, les éruptions cutanées causées par le sumac grimpant et sumac à vernis, les œdèmes, les allergies et les contusions. Cependant, son utilisation principale est le traitement de l'otite (infection de l’oreille), y compris l’otomycose (infection fongique de l’oreille).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le créateur de la solution de Burow était Karl August Burow (1809-1874), chirurgien militaire et anatomiste. Burow a également été l'inventeur de certaines techniques de chirurgie plastique et de cicatrisation des plaies qui sont encore largement utilisées aujourd'hui[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le créateur de la solution de Burow était Karl August Burow (1809-1874), chirurgien militaire et anatomiste. Burow a également été l'inventeur de certaines techniques de chirurgie plastique et de cicatrisation des plaies qui sont encore largement utilisées aujourd'hui.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Otite
-La solution de Burow peut être utilisée pour traiter diverses formes d'infection de l'oreille, appelées otites[4],[5]. En tant que médicament, il est peu coûteux et non ototoxique. En cas d'otomycose, il est moins efficace que le clotrimazole mais reste un traitement efficace[6].
-Irritation de la peau
-La plupart des versions de la solution de Burow peuvent être utilisées comme trempage ou compresse. En tant qu'astringent approuvé par la FDA, il est utilisé pour soulager les irritations cutanées dues au sumac grimpant et au sumac à vernis, ainsi que les éruptions cutanées dues à des réactions allergiques aux savons, détergents, cosmétiques et bijoux[7]. Cela est dû à la combinaison de deux ingrédients actifs présents dans cette version de la solution de Burow, à savoir le sulfate d'aluminium tétradécahydraté et l'acétate de calcium monohydraté[8],[9],[10].
+          <t>Otite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La solution de Burow peut être utilisée pour traiter diverses formes d'infection de l'oreille, appelées otites,. En tant que médicament, il est peu coûteux et non ototoxique. En cas d'otomycose, il est moins efficace que le clotrimazole mais reste un traitement efficace.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solution_de_Burow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solution_de_Burow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Irritation de la peau</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des versions de la solution de Burow peuvent être utilisées comme trempage ou compresse. En tant qu'astringent approuvé par la FDA, il est utilisé pour soulager les irritations cutanées dues au sumac grimpant et au sumac à vernis, ainsi que les éruptions cutanées dues à des réactions allergiques aux savons, détergents, cosmétiques et bijoux. Cela est dû à la combinaison de deux ingrédients actifs présents dans cette version de la solution de Burow, à savoir le sulfate d'aluminium tétradécahydraté et l'acétate de calcium monohydraté.
 La solution est utilisée par certains pour réduire l'inflammation et l'infection potentielle due à des affections telles que les ongles incarnés.
 </t>
         </is>
